--- a/Code/Results/Cases/Case_2_150/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_150/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.36694272812442</v>
+        <v>17.62433929335113</v>
       </c>
       <c r="C2">
-        <v>13.35033118681807</v>
+        <v>10.93012825351122</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.669445754372213</v>
+        <v>11.65254030341503</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.078769091168437</v>
+        <v>3.635237828742222</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.350535202355138</v>
+        <v>9.771818357878768</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.86596506869729</v>
+        <v>21.783745325392</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.71967521197895</v>
+        <v>16.97238938020411</v>
       </c>
       <c r="C3">
-        <v>12.78148495323856</v>
+        <v>10.70262724041649</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.772193196275047</v>
+        <v>11.71219608399484</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.084980582419047</v>
+        <v>3.637503369411146</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.077367040610931</v>
+        <v>9.73886407234202</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.07107393069267</v>
+        <v>21.94809718031337</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.64884313354098</v>
+        <v>16.56012919542524</v>
       </c>
       <c r="C4">
-        <v>12.42042272283463</v>
+        <v>10.56044015581627</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.841036780714969</v>
+        <v>11.75123777084512</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.088898952279128</v>
+        <v>3.638966683031612</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.907913483361826</v>
+        <v>9.720197387447698</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.22174413363598</v>
+        <v>22.05634916396239</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.19742554133464</v>
+        <v>16.38935770930619</v>
       </c>
       <c r="C5">
-        <v>12.27047101887657</v>
+        <v>10.501932405971</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.87048235630035</v>
+        <v>11.7677543857409</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.090522888810268</v>
+        <v>3.639581225781412</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.838517197975682</v>
+        <v>9.712989811305377</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.28891439667287</v>
+        <v>22.10230152703428</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.12155622077157</v>
+        <v>16.36084117656275</v>
       </c>
       <c r="C6">
-        <v>12.24540637277738</v>
+        <v>10.49218499937948</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.875454243654768</v>
+        <v>11.77053361014463</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.090794208425272</v>
+        <v>3.639684372969924</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.826976169855644</v>
+        <v>9.711817254299502</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.30040395004108</v>
+        <v>22.11004274790297</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.64281621503518</v>
+        <v>16.55783700619521</v>
       </c>
       <c r="C7">
-        <v>12.41841161009864</v>
+        <v>10.55965330314231</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.841428331823547</v>
+        <v>11.75145806259686</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.08892074209984</v>
+        <v>3.638974897075788</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.906978839782319</v>
+        <v>9.720098560538947</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.22262722096587</v>
+        <v>22.05696145716558</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.81122859581384</v>
+        <v>17.40216287468084</v>
       </c>
       <c r="C8">
-        <v>13.1567215530006</v>
+        <v>10.85224207202342</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.703643112727133</v>
+        <v>11.67260889373546</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.08088968094239</v>
+        <v>3.636004025013389</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.256757349378177</v>
+        <v>9.760133596809158</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.93127525927548</v>
+        <v>21.83888649128818</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.59710732255471</v>
+        <v>18.95388323225754</v>
       </c>
       <c r="C9">
-        <v>14.50564724200177</v>
+        <v>11.40352893379448</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.481893193653203</v>
+        <v>11.53712617022188</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.065926666366098</v>
+        <v>3.630748798001679</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.925451630689103</v>
+        <v>9.850837334963121</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.57756648273407</v>
+        <v>21.46978281317794</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.10136857898241</v>
+        <v>20.01997720969961</v>
       </c>
       <c r="C10">
-        <v>15.43072056580385</v>
+        <v>11.79154642103919</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.352737906533299</v>
+        <v>11.44924972112825</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.055347746984875</v>
+        <v>3.627231836297645</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.402294633921056</v>
+        <v>9.924565716020464</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.48117522979162</v>
+        <v>21.23472029092688</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.18203028235015</v>
+        <v>20.48711007994854</v>
       </c>
       <c r="C11">
-        <v>15.83640969372712</v>
+        <v>11.96373794246101</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.302361298296705</v>
+        <v>11.41180426319936</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.050609508355061</v>
+        <v>3.625705771616263</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.61546669268092</v>
+        <v>9.959564825872855</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.47969642827955</v>
+        <v>21.13572366844301</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.58296725382253</v>
+        <v>20.66131109924978</v>
       </c>
       <c r="C12">
-        <v>15.98781038620506</v>
+        <v>12.02827300072829</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.284586396647819</v>
+        <v>11.39798853427294</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.048824521411305</v>
+        <v>3.625138443815024</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.69561281058926</v>
+        <v>9.973020606923983</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.48579409004043</v>
+        <v>21.09938569976714</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.49698466921393</v>
+        <v>20.62391536374</v>
       </c>
       <c r="C13">
-        <v>15.95530312016638</v>
+        <v>12.01440476814087</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.288355017864999</v>
+        <v>11.40094780308737</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.049208560782464</v>
+        <v>3.625260159235844</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.678378104747953</v>
+        <v>9.97011378583859</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.48417591046101</v>
+        <v>21.10716044450774</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.21518089904407</v>
+        <v>20.50149632209651</v>
       </c>
       <c r="C14">
-        <v>15.84891034055159</v>
+        <v>11.96906097907927</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.300872275217579</v>
+        <v>11.41066033717965</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.050462478735161</v>
+        <v>3.625658885898495</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.622072122340469</v>
+        <v>9.960667829269291</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.48006147211093</v>
+        <v>21.13271102412202</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.04149286303969</v>
+        <v>20.42615706316938</v>
       </c>
       <c r="C15">
-        <v>15.78345072822878</v>
+        <v>11.94119793415668</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.308711985267992</v>
+        <v>11.41665696305264</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.051231705337364</v>
+        <v>3.625904491052514</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.587506895142413</v>
+        <v>9.954908035330902</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.47842481523547</v>
+        <v>21.14851151235082</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.02957795797948</v>
+        <v>19.98907877923526</v>
       </c>
       <c r="C16">
-        <v>15.40389880714626</v>
+        <v>11.78020211145394</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.356206812257965</v>
+        <v>11.45174779979141</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.055658778724809</v>
+        <v>3.627333048903473</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.388284403765818</v>
+        <v>9.922307178278999</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.48217302750723</v>
+        <v>21.24135037371804</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.39389947763665</v>
+        <v>19.71628070274372</v>
       </c>
       <c r="C17">
-        <v>15.16714077480922</v>
+        <v>11.68029406985275</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.387555374308375</v>
+        <v>11.47392304478358</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.058392691234397</v>
+        <v>3.628228290196333</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.265077495257998</v>
+        <v>9.902676213712329</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.4957296735476</v>
+        <v>21.30034250587637</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.02275581236365</v>
+        <v>19.55770183742405</v>
       </c>
       <c r="C18">
-        <v>15.02954152114853</v>
+        <v>11.62242573216842</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.406368406604841</v>
+        <v>11.48691577622309</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.059972235469478</v>
+        <v>3.628750160769542</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.193861193316987</v>
+        <v>9.891522866005557</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.5074816564905</v>
+        <v>21.33501950366519</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.89614126903152</v>
+        <v>19.50372663304234</v>
       </c>
       <c r="C19">
-        <v>14.9827102391479</v>
+        <v>11.60276469175823</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.412869687744715</v>
+        <v>11.49135578170938</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.060508296618097</v>
+        <v>3.628928052788723</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.169689651923928</v>
+        <v>9.887770436757533</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.51212248187474</v>
+        <v>21.3468884458883</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.462138716306</v>
+        <v>19.74549460778901</v>
       </c>
       <c r="C20">
-        <v>15.1924916765549</v>
+        <v>11.69097161695312</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.38413663739804</v>
+        <v>11.47153780619535</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.058100939515858</v>
+        <v>3.62813227118372</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.27822971626804</v>
+        <v>9.904751748580457</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.49387313238693</v>
+        <v>21.29398539112385</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.29817730120016</v>
+        <v>20.53752775104199</v>
       </c>
       <c r="C21">
-        <v>15.88022118242927</v>
+        <v>11.98239810923049</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.297159513944983</v>
+        <v>11.40779764807034</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.050093932352296</v>
+        <v>3.625541484061732</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.638626486571702</v>
+        <v>9.963436904635484</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.481084864068</v>
+        <v>21.12517491914011</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.44990223501183</v>
+        <v>21.03942856953235</v>
       </c>
       <c r="C22">
-        <v>16.31671069512865</v>
+        <v>12.16893587055629</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.247952651002534</v>
+        <v>11.3682618872786</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.044914260239211</v>
+        <v>3.623909779956502</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.870789578703482</v>
+        <v>10.00296696767532</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.51178215974501</v>
+        <v>21.02155434444326</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.83957307653322</v>
+        <v>20.77303235578109</v>
       </c>
       <c r="C23">
-        <v>16.08494829928098</v>
+        <v>12.06975168777334</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.273482250828537</v>
+        <v>11.38916860390491</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.047674353445656</v>
+        <v>3.624775039772553</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.747198958912785</v>
+        <v>9.981763992507231</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.49164253727644</v>
+        <v>21.07624190914741</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.4313054696609</v>
+        <v>19.73229242249473</v>
       </c>
       <c r="C24">
-        <v>15.18103515202337</v>
+        <v>11.68614563314582</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.385679793911889</v>
+        <v>11.47261541288248</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.058232816127061</v>
+        <v>3.628175658995516</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.272284787071985</v>
+        <v>9.903812985185864</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.49470018915968</v>
+        <v>21.29685707085684</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.62213676783182</v>
+        <v>18.54641094534368</v>
       </c>
       <c r="C25">
-        <v>14.15197705882933</v>
+        <v>11.25715228370133</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.536283343493952</v>
+        <v>11.57172944188004</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.06989682350613</v>
+        <v>3.632109781660255</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.746843649908235</v>
+        <v>9.825028280552701</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.6468458907212</v>
+        <v>21.56332438713492</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_150/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_150/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.62433929335113</v>
+        <v>24.36694272812442</v>
       </c>
       <c r="C2">
-        <v>10.93012825351122</v>
+        <v>13.35033118681809</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.65254030341503</v>
+        <v>6.669445754371979</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.635237828742222</v>
+        <v>2.07876909116817</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.771818357878768</v>
+        <v>7.350535202355063</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.783745325392</v>
+        <v>12.8659650686973</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.97238938020411</v>
+        <v>22.71967521197897</v>
       </c>
       <c r="C3">
-        <v>10.70262724041649</v>
+        <v>12.78148495323847</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.71219608399484</v>
+        <v>6.772193196275114</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.637503369411146</v>
+        <v>2.084980582419182</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.73886407234202</v>
+        <v>7.077367040610973</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.94809718031337</v>
+        <v>13.07107393069264</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.56012919542524</v>
+        <v>21.648843133541</v>
       </c>
       <c r="C4">
-        <v>10.56044015581627</v>
+        <v>12.42042272283478</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.75123777084512</v>
+        <v>6.841036780715021</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.638966683031612</v>
+        <v>2.088898952278993</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.720197387447698</v>
+        <v>6.907913483361823</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.05634916396239</v>
+        <v>13.22174413363578</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.38935770930619</v>
+        <v>21.19742554133464</v>
       </c>
       <c r="C5">
-        <v>10.501932405971</v>
+        <v>12.27047101887672</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.7677543857409</v>
+        <v>6.870482356300424</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.639581225781412</v>
+        <v>2.090522888810134</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.712989811305377</v>
+        <v>6.838517197975682</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.10230152703428</v>
+        <v>13.28891439667265</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.36084117656275</v>
+        <v>21.12155622077152</v>
       </c>
       <c r="C6">
-        <v>10.49218499937948</v>
+        <v>12.24540637277738</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.77053361014463</v>
+        <v>6.875454243654761</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.639684372969924</v>
+        <v>2.090794208425407</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.711817254299502</v>
+        <v>6.826976169855629</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.11004274790297</v>
+        <v>13.30040395004121</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.55783700619521</v>
+        <v>21.6428162150351</v>
       </c>
       <c r="C7">
-        <v>10.55965330314231</v>
+        <v>12.41841161009873</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.75145806259686</v>
+        <v>6.841428331823549</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.638974897075788</v>
+        <v>2.088920742099706</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.720098560538947</v>
+        <v>6.906978839782299</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.05696145716558</v>
+        <v>13.22262722096598</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.40216287468084</v>
+        <v>23.81122859581386</v>
       </c>
       <c r="C8">
-        <v>10.85224207202342</v>
+        <v>13.15672155300048</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.67260889373546</v>
+        <v>6.703643112727018</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.636004025013389</v>
+        <v>2.080889680942258</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.760133596809158</v>
+        <v>7.256757349378138</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.83888649128818</v>
+        <v>12.93127525927553</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.95388323225754</v>
+        <v>27.59710732255471</v>
       </c>
       <c r="C9">
-        <v>11.40352893379448</v>
+        <v>14.50564724200154</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.53712617022188</v>
+        <v>6.481893193653051</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.630748798001679</v>
+        <v>2.065926666365696</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.850837334963121</v>
+        <v>7.925451630689076</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.46978281317794</v>
+        <v>12.57756648273412</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.01997720969961</v>
+        <v>30.10136857898235</v>
       </c>
       <c r="C10">
-        <v>11.79154642103919</v>
+        <v>15.43072056580382</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.44924972112825</v>
+        <v>6.352737906533293</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.627231836297645</v>
+        <v>2.055347746984873</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.924565716020464</v>
+        <v>8.402294633921054</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.23472029092688</v>
+        <v>12.48117522979176</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.48711007994854</v>
+        <v>31.1820302823502</v>
       </c>
       <c r="C11">
-        <v>11.96373794246101</v>
+        <v>15.8364096937272</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.41180426319936</v>
+        <v>6.302361298296709</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.625705771616263</v>
+        <v>2.050609508355062</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.959564825872855</v>
+        <v>8.615466692680933</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.13572366844301</v>
+        <v>12.47969642827951</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.66131109924978</v>
+        <v>31.58296725382253</v>
       </c>
       <c r="C12">
-        <v>12.02827300072829</v>
+        <v>15.98781038620519</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.39798853427294</v>
+        <v>6.284586396647726</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.625138443815024</v>
+        <v>2.048824521410903</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.973020606923983</v>
+        <v>8.695612810589237</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.09938569976714</v>
+        <v>12.48579409004046</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.62391536374</v>
+        <v>31.49698466921397</v>
       </c>
       <c r="C13">
-        <v>12.01440476814087</v>
+        <v>15.95530312016635</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.40094780308737</v>
+        <v>6.288355017864891</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.625260159235844</v>
+        <v>2.049208560782463</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.97011378583859</v>
+        <v>8.678378104747976</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.10716044450774</v>
+        <v>12.48417591046086</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.50149632209651</v>
+        <v>31.21518089904404</v>
       </c>
       <c r="C14">
-        <v>11.96906097907927</v>
+        <v>15.84891034055142</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.41066033717965</v>
+        <v>6.300872275217427</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.625658885898495</v>
+        <v>2.050462478734761</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.960667829269291</v>
+        <v>8.622072122340445</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.13271102412202</v>
+        <v>12.48006147211104</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.42615706316938</v>
+        <v>31.04149286303966</v>
       </c>
       <c r="C15">
-        <v>11.94119793415668</v>
+        <v>15.78345072822878</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.41665696305264</v>
+        <v>6.308711985268054</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.625904491052514</v>
+        <v>2.051231705337631</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.954908035330902</v>
+        <v>8.587506895142424</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.14851151235082</v>
+        <v>12.47842481523554</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.98907877923526</v>
+        <v>30.02957795797944</v>
       </c>
       <c r="C16">
-        <v>11.78020211145394</v>
+        <v>15.40389880714627</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.45174779979141</v>
+        <v>6.356206812257962</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.627333048903473</v>
+        <v>2.055658778725077</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.922307178278999</v>
+        <v>8.388284403765836</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.24135037371804</v>
+        <v>12.4821730275073</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.71628070274372</v>
+        <v>29.39389947763663</v>
       </c>
       <c r="C17">
-        <v>11.68029406985275</v>
+        <v>15.16714077480912</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.47392304478358</v>
+        <v>6.387555374308381</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.628228290196333</v>
+        <v>2.058392691234396</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.902676213712329</v>
+        <v>8.265077495258003</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.30034250587637</v>
+        <v>12.49572967354786</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.55770183742405</v>
+        <v>29.02275581236359</v>
       </c>
       <c r="C18">
-        <v>11.62242573216842</v>
+        <v>15.02954152114849</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.48691577622309</v>
+        <v>6.406368406604942</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.628750160769542</v>
+        <v>2.059972235469611</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.891522866005557</v>
+        <v>8.193861193317069</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.33501950366519</v>
+        <v>12.50748165649052</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.50372663304234</v>
+        <v>28.89614126903152</v>
       </c>
       <c r="C19">
-        <v>11.60276469175823</v>
+        <v>14.98271023914791</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.49135578170938</v>
+        <v>6.412869687744606</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.628928052788723</v>
+        <v>2.060508296617963</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.887770436757533</v>
+        <v>8.169689651923873</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.3468884458883</v>
+        <v>12.51212248187475</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.74549460778901</v>
+        <v>29.462138716306</v>
       </c>
       <c r="C20">
-        <v>11.69097161695312</v>
+        <v>15.19249167655489</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.47153780619535</v>
+        <v>6.384136637397978</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.62813227118372</v>
+        <v>2.058100939515591</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.904751748580457</v>
+        <v>8.27822971626801</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.29398539112385</v>
+        <v>12.49387313238693</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.53752775104199</v>
+        <v>31.29817730120007</v>
       </c>
       <c r="C21">
-        <v>11.98239810923049</v>
+        <v>15.88022118242926</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.40779764807034</v>
+        <v>6.297159513944979</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.625541484061732</v>
+        <v>2.050093932352163</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.963436904635484</v>
+        <v>8.63862648657172</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.12517491914011</v>
+        <v>12.48108486406816</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.03942856953235</v>
+        <v>32.44990223501183</v>
       </c>
       <c r="C22">
-        <v>12.16893587055629</v>
+        <v>16.31671069512873</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.3682618872786</v>
+        <v>6.247952651002476</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.623909779956502</v>
+        <v>2.044914260239479</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.00296696767532</v>
+        <v>8.870789578703461</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.02155434444326</v>
+        <v>12.51178215974493</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.77303235578109</v>
+        <v>31.83957307653327</v>
       </c>
       <c r="C23">
-        <v>12.06975168777334</v>
+        <v>16.08494829928085</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.38916860390491</v>
+        <v>6.273482250828502</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.624775039772553</v>
+        <v>2.047674353445255</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.981763992507231</v>
+        <v>8.747198958912783</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.07624190914741</v>
+        <v>12.49164253727644</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.73229242249473</v>
+        <v>29.43130546966091</v>
       </c>
       <c r="C24">
-        <v>11.68614563314582</v>
+        <v>15.18103515202336</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.47261541288248</v>
+        <v>6.385679793912002</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.628175658995516</v>
+        <v>2.058232816127061</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.903812985185864</v>
+        <v>8.27228478707203</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.29685707085684</v>
+        <v>12.49470018915971</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.54641094534368</v>
+        <v>26.62213676783177</v>
       </c>
       <c r="C25">
-        <v>11.25715228370133</v>
+        <v>14.15197705882936</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.57172944188004</v>
+        <v>6.536283343494002</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.632109781660255</v>
+        <v>2.069896823506129</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.825028280552701</v>
+        <v>7.746843649908228</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.56332438713492</v>
+        <v>12.64684589072132</v>
       </c>
     </row>
   </sheetData>
